--- a/results/BWW/BWW-simple-quals-analysis.xlsx
+++ b/results/BWW/BWW-simple-quals-analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22221"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="13720" yWindow="1520" windowWidth="34380" windowHeight="24060" tabRatio="500"/>
+    <workbookView xWindow="20" yWindow="0" windowWidth="28720" windowHeight="17560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="HITResultsFor27PQ67051QKCROCZ4F" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="41">
   <si>
     <t>Tue Jun 12 23:52:23 PDT 2012</t>
   </si>
@@ -136,6 +136,12 @@
   </si>
   <si>
     <t>Non-binding Property</t>
+  </si>
+  <si>
+    <t>α=0.1</t>
+  </si>
+  <si>
+    <t>α=0.05</t>
   </si>
 </sst>
 </file>
@@ -543,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO33"/>
+  <dimension ref="A1:AO34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="V33" sqref="V33"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="U32" sqref="U32:V34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2851,71 +2857,71 @@
         <v>-1</v>
       </c>
       <c r="W17">
-        <f t="shared" ref="W17:W30" si="4">IF(OR(E$30&lt;5,E$31&lt;5),-1,  IF($A17=E17,1,0))</f>
+        <f t="shared" ref="W17:W29" si="4">IF(OR(E$30&lt;5,E$31&lt;5),-1,  IF($A17=E17,1,0))</f>
         <v>0</v>
       </c>
       <c r="X17">
-        <f t="shared" ref="X17:X30" si="5">IF(OR(F$30&lt;5,F$31&lt;5),-1,  IF($A17=F17,1,0))</f>
+        <f t="shared" ref="X17:X29" si="5">IF(OR(F$30&lt;5,F$31&lt;5),-1,  IF($A17=F17,1,0))</f>
         <v>1</v>
       </c>
       <c r="Y17">
-        <f t="shared" ref="Y17:Y30" si="6">IF(OR(G$30&lt;5,G$31&lt;5),-1,  IF($A17=G17,1,0))</f>
+        <f t="shared" ref="Y17:Y29" si="6">IF(OR(G$30&lt;5,G$31&lt;5),-1,  IF($A17=G17,1,0))</f>
         <v>1</v>
       </c>
       <c r="Z17">
-        <f t="shared" ref="Z17:Z30" si="7">IF(OR(H$30&lt;5,H$31&lt;5),-1,  IF($A17=H17,1,0))</f>
+        <f t="shared" ref="Z17:Z29" si="7">IF(OR(H$30&lt;5,H$31&lt;5),-1,  IF($A17=H17,1,0))</f>
         <v>0</v>
       </c>
       <c r="AA17">
-        <f t="shared" ref="AA17:AA30" si="8">IF(OR(I$30&lt;5,I$31&lt;5),-1,  IF($A17=I17,1,0))</f>
+        <f t="shared" ref="AA17:AA29" si="8">IF(OR(I$30&lt;5,I$31&lt;5),-1,  IF($A17=I17,1,0))</f>
         <v>1</v>
       </c>
       <c r="AB17">
-        <f t="shared" ref="AB17:AB30" si="9">IF(OR(J$30&lt;5,J$31&lt;5),-1,  IF($A17=J17,1,0))</f>
+        <f t="shared" ref="AB17:AB29" si="9">IF(OR(J$30&lt;5,J$31&lt;5),-1,  IF($A17=J17,1,0))</f>
         <v>1</v>
       </c>
       <c r="AC17">
-        <f t="shared" ref="AC17:AC30" si="10">IF(OR(K$30&lt;5,K$31&lt;5),-1,  IF($A17=K17,1,0))</f>
+        <f t="shared" ref="AC17:AC29" si="10">IF(OR(K$30&lt;5,K$31&lt;5),-1,  IF($A17=K17,1,0))</f>
         <v>1</v>
       </c>
       <c r="AD17">
-        <f t="shared" ref="AD17:AD30" si="11">IF(OR(L$30&lt;5,L$31&lt;5),-1,  IF($A17=L17,1,0))</f>
+        <f t="shared" ref="AD17:AD29" si="11">IF(OR(L$30&lt;5,L$31&lt;5),-1,  IF($A17=L17,1,0))</f>
         <v>1</v>
       </c>
       <c r="AE17">
-        <f t="shared" ref="AE17:AE30" si="12">IF(OR(M$30&lt;5,M$31&lt;5),-1,  IF($A17=M17,1,0))</f>
+        <f t="shared" ref="AE17:AE29" si="12">IF(OR(M$30&lt;5,M$31&lt;5),-1,  IF($A17=M17,1,0))</f>
         <v>1</v>
       </c>
       <c r="AF17">
-        <f t="shared" ref="AF17:AF30" si="13">IF(OR(N$30&lt;5,N$31&lt;5),-1,  IF($A17=N17,1,0))</f>
+        <f t="shared" ref="AF17:AF29" si="13">IF(OR(N$30&lt;5,N$31&lt;5),-1,  IF($A17=N17,1,0))</f>
         <v>1</v>
       </c>
       <c r="AG17">
-        <f t="shared" ref="AG17:AG30" si="14">IF(OR(O$30&lt;5,O$31&lt;5),-1,  IF($A17=O17,1,0))</f>
+        <f t="shared" ref="AG17:AG29" si="14">IF(OR(O$30&lt;5,O$31&lt;5),-1,  IF($A17=O17,1,0))</f>
         <v>-1</v>
       </c>
       <c r="AH17">
-        <f t="shared" ref="AH17:AH30" si="15">IF(OR(P$30&lt;5,P$31&lt;5),-1,  IF($A17=P17,1,0))</f>
+        <f t="shared" ref="AH17:AH29" si="15">IF(OR(P$30&lt;5,P$31&lt;5),-1,  IF($A17=P17,1,0))</f>
         <v>1</v>
       </c>
       <c r="AI17">
-        <f t="shared" ref="AI17:AI30" si="16">IF(OR(Q$30&lt;5,Q$31&lt;5),-1,  IF($A17=Q17,1,0))</f>
+        <f t="shared" ref="AI17:AI29" si="16">IF(OR(Q$30&lt;5,Q$31&lt;5),-1,  IF($A17=Q17,1,0))</f>
         <v>0</v>
       </c>
       <c r="AJ17">
-        <f t="shared" ref="AJ17:AJ30" si="17">IF(OR(R$30&lt;5,R$31&lt;5),-1,  IF($A17=R17,1,0))</f>
+        <f t="shared" ref="AJ17:AJ29" si="17">IF(OR(R$30&lt;5,R$31&lt;5),-1,  IF($A17=R17,1,0))</f>
         <v>1</v>
       </c>
       <c r="AK17">
-        <f t="shared" ref="AK17:AK30" si="18">IF(OR(S$30&lt;5,S$31&lt;5),-1,  IF($A17=S17,1,0))</f>
+        <f t="shared" ref="AK17:AK29" si="18">IF(OR(S$30&lt;5,S$31&lt;5),-1,  IF($A17=S17,1,0))</f>
         <v>1</v>
       </c>
       <c r="AL17">
-        <f t="shared" ref="AL17:AL30" si="19">IF(OR(T$30&lt;5,T$31&lt;5),-1,  IF($A17=T17,1,0))</f>
+        <f t="shared" ref="AL17:AL29" si="19">IF(OR(T$30&lt;5,T$31&lt;5),-1,  IF($A17=T17,1,0))</f>
         <v>0</v>
       </c>
       <c r="AM17">
-        <f t="shared" ref="AM17:AM30" si="20">IF(OR(U$30&lt;5,U$31&lt;5),-1,  IF($A17=U17,1,0))</f>
+        <f t="shared" ref="AM17:AM29" si="20">IF(OR(U$30&lt;5,U$31&lt;5),-1,  IF($A17=U17,1,0))</f>
         <v>0</v>
       </c>
       <c r="AN17">
@@ -4813,6 +4819,10 @@
         <v>13</v>
       </c>
       <c r="AN30">
+        <f>AVERAGE(AN2:AN29)</f>
+        <v>9.2142857142857135</v>
+      </c>
+      <c r="AO30">
         <f>AVERAGE(AN2:AN29)/16</f>
         <v>0.5758928571428571</v>
       </c>
@@ -4896,15 +4906,27 @@
         <f>COUNTIF(D30:AK31,"&lt;5")</f>
         <v>4</v>
       </c>
+      <c r="U32" t="s">
+        <v>39</v>
+      </c>
       <c r="V32" s="1">
-        <f>COUNTIF(V30:AM30,"&gt;=18")</f>
+        <f>COUNTIF(V30:AQ30,"&gt;=18")</f>
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="22:22">
+    <row r="33" spans="21:22">
       <c r="V33" s="1">
-        <f>COUNTIF(V30:AM30,"&gt;=22")</f>
-        <v>0</v>
+        <f>COUNTIF(V30:AQ30,"&gt;=22")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="21:22">
+      <c r="U34" t="s">
+        <v>40</v>
+      </c>
+      <c r="V34">
+        <f>COUNTIF(V30:AQ30,"&gt;=19")</f>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
